--- a/biology/Médecine/Charles_Blagden/Charles_Blagden.xlsx
+++ b/biology/Médecine/Charles_Blagden/Charles_Blagden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Brian Blagden, né le 17 avril 1748 à Wotton-under-Edge et mort le 26 mars 1820 à Arcueil, est un médecin, physicien et chimiste britannique. 
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecin dans l'armée (1776-1780), il participe à des expériences sur la température et, avec Joseph Banks et Daniel Solander, établit une étude sur l'adaptation des animaux à une importante température. Avec Banks et Solander, ils supportent une température de 128° C alors que des œufs et de la viande cuisaient à leurs côtés (1774)[2],[3]. Cette expérience est rapportée par Jules Verne dans son roman Les Aventures du capitaine Hatteras (partie 2, chapitre IX)[4].
-En 1783, assistant d'Henry Cavendish (1783), il rend visite avec lui à Antoine Lavoisier à Paris et y est témoin des expériences menées sur l'air inflammable[5].  
-Il devient secrétaire de la Royal Society (1784-1797) et remporte la médaille Copley en 1788. Élu membre correspondant de l'Académie américaine des arts et des sciences en 1789, il est élu cette année-là à la Société américaine de philosophie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Médecin dans l'armée (1776-1780), il participe à des expériences sur la température et, avec Joseph Banks et Daniel Solander, établit une étude sur l'adaptation des animaux à une importante température. Avec Banks et Solander, ils supportent une température de 128° C alors que des œufs et de la viande cuisaient à leurs côtés (1774),. Cette expérience est rapportée par Jules Verne dans son roman Les Aventures du capitaine Hatteras (partie 2, chapitre IX).
+En 1783, assistant d'Henry Cavendish (1783), il rend visite avec lui à Antoine Lavoisier à Paris et y est témoin des expériences menées sur l'air inflammable.  
+Il devient secrétaire de la Royal Society (1784-1797) et remporte la médaille Copley en 1788. Élu membre correspondant de l'Académie américaine des arts et des sciences en 1789, il est élu cette année-là à la Société américaine de philosophie.
 Il est anobli en 1797. 
-Blagden est aussi à l'origine de la loi de la cryométrie selon laquelle « l'abaissement cryométrique du point de congélation d'une solution étendue est proportionnel à sa concentration »[7].
-Mort à Arcueil en France, il est inhumé au cimetière du Père Lachaise[8].
+Blagden est aussi à l'origine de la loi de la cryométrie selon laquelle « l'abaissement cryométrique du point de congélation d'une solution étendue est proportionnel à sa concentration ».
+Mort à Arcueil en France, il est inhumé au cimetière du Père Lachaise.
 </t>
         </is>
       </c>
